--- a/LCOA_PyPSA_results.xlsx
+++ b/LCOA_PyPSA_results.xlsx
@@ -4321,7 +4321,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="n"/>
+      <c r="A3" s="27" t="n"/>
       <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
@@ -4413,7 +4413,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="n"/>
+      <c r="A5" s="28" t="n"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
@@ -4457,7 +4457,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="n"/>
+      <c r="A6" s="28" t="n"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
@@ -4501,7 +4501,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="n"/>
+      <c r="A7" s="27" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
@@ -4573,7 +4573,6 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -4586,7 +4585,6 @@
       <c r="M8" t="n">
         <v>-115586113.5558973</v>
       </c>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="25" t="inlineStr">
@@ -4685,7 +4683,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="n"/>
+      <c r="A11" s="27" t="n"/>
       <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
@@ -4878,84 +4876,84 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>420.19025</v>
+        <v>410.8875</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>541647.7549356299</v>
+        <v>525176.06484117</v>
       </c>
       <c r="F2" t="n">
-        <v>7.439773500000001e-12</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>541647.7549356299</v>
+        <v>525176.06484117</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1471522375755622</v>
+        <v>0.1459075916777123</v>
       </c>
       <c r="J2" t="n">
-        <v>152513.136791795</v>
+        <v>153616.54119765</v>
       </c>
       <c r="K2" t="n">
-        <v>19999707.4671508</v>
+        <v>19556926.42061287</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>19999707.4084267</v>
+        <v>19556926.66883652</v>
       </c>
       <c r="N2" t="n">
-        <v>36.92382591118371</v>
+        <v>37.23880042924495</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="n"/>
+      <c r="A3" s="25" t="n"/>
       <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>407.26132</v>
+        <v>421.29851</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1422282.232008323</v>
+        <v>1438971.211364883</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1422282.232008323</v>
+        <v>1438971.211364883</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3986653713863077</v>
+        <v>0.3899043460154237</v>
       </c>
       <c r="J3" t="n">
-        <v>272960.1205914401</v>
+        <v>314701.5324458299</v>
       </c>
       <c r="K3" t="n">
-        <v>27081824.16625081</v>
+        <v>28015260.98605058</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27081824.09158394</v>
+        <v>28015260.72524665</v>
       </c>
       <c r="N3" t="n">
-        <v>19.04110413679518</v>
+        <v>19.46895150089471</v>
       </c>
     </row>
     <row r="4">
@@ -4970,113 +4968,113 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>294.80246</v>
+        <v>283.19525</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1068290.751411625</v>
+        <v>1068290.76921521</v>
       </c>
       <c r="F4" t="n">
-        <v>1810662.290528184</v>
+        <v>1810662.320703757</v>
       </c>
       <c r="G4" t="n">
-        <v>-742371.5391165589</v>
+        <v>-742371.5514885474</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7011359691767268</v>
+        <v>0.7298731597810463</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>18509486.11757711</v>
+        <v>24816524.94328844</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>18509485.6710509</v>
+        <v>24816524.51455568</v>
       </c>
       <c r="N4" t="n">
-        <v>17.32626220585813</v>
+        <v>23.23012163887395</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="n"/>
+      <c r="A5" s="25" t="n"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>129.44711</v>
+        <v>129.96116</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>875999.9944740143</v>
+        <v>876000.0150289923</v>
       </c>
       <c r="F5" t="n">
-        <v>1219988.040224067</v>
+        <v>1219988.068850572</v>
       </c>
       <c r="G5" t="n">
-        <v>-343988.045750053</v>
+        <v>-343988.0538215791</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9420913238673987</v>
+        <v>0.9383649860638241</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>9732553.954048058</v>
+        <v>9771203.093144931</v>
       </c>
       <c r="L5" t="n">
-        <v>11592022.963635</v>
+        <v>11592023.2356371</v>
       </c>
       <c r="M5" t="n">
-        <v>21324577.549535</v>
+        <v>21363227.68915277</v>
       </c>
       <c r="N5" t="n">
-        <v>24.34312521010865</v>
+        <v>24.38724580209611</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="n"/>
+      <c r="A6" s="25" t="n"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36.311907</v>
+        <v>36.058995</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>88221.33830370208</v>
+        <v>93063.33528219021</v>
       </c>
       <c r="F6" t="n">
-        <v>88221.33830370208</v>
+        <v>93063.33528219021</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0005310627893777564</v>
+        <v>0.0002107705322487163</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2773450876623727</v>
+        <v>0.2946190932722586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -5085,42 +5083,42 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.000531062174559338</v>
+        <v>0.0002107701329805423</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0005310596898198128</v>
+        <v>0.0002107461914420128</v>
       </c>
       <c r="N6" t="n">
-        <v>-6.018688624380753e-09</v>
+        <v>2.264599272492895e-09</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="n"/>
+      <c r="A7" s="25" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>129.44711</v>
+        <v>129.96116</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>355605.9021315488</v>
+        <v>334995.3389755026</v>
       </c>
       <c r="F7" t="n">
-        <v>355605.9021315488</v>
+        <v>334995.3389755026</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006730989903189766</v>
+        <v>-0.001727376533835923</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3135974303732638</v>
+        <v>0.2942531218711645</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -5129,13 +5127,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006730989425705047</v>
+        <v>-0.001727376561575511</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0006731245666742325</v>
+        <v>-0.001727338880300522</v>
       </c>
       <c r="N7" t="n">
-        <v>1.892844456483577e-09</v>
+        <v>-5.156474055697923e-09</v>
       </c>
     </row>
     <row r="8">
@@ -5167,6 +5165,7 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -5177,8 +5176,9 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-98398871.66560188</v>
-      </c>
+        <v>-105550043.8160016</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="25" t="inlineStr">
@@ -5192,40 +5192,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39.40215</v>
+        <v>42.18035</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>21263.476237062</v>
+        <v>24205.54216396003</v>
       </c>
       <c r="F9" t="n">
-        <v>22833.876044771</v>
+        <v>25993.22632590398</v>
       </c>
       <c r="G9" t="n">
-        <v>-1570.399807709026</v>
+        <v>-1787.684161944</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1277581128037472</v>
+        <v>0.1358559856415861</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>810541.8698789697</v>
+        <v>867692.239158254</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>810541.8768422626</v>
+        <v>867692.236645882</v>
       </c>
       <c r="N9" t="n">
-        <v>38.11897301295906</v>
+        <v>35.84684163521035</v>
       </c>
     </row>
     <row r="10">
@@ -5240,84 +5240,84 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22649.361</v>
+        <v>23291.932</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>44110.66941738183</v>
+        <v>46531.66753570992</v>
       </c>
       <c r="F10" t="n">
-        <v>44110.66888631925</v>
+        <v>46531.66774648054</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0005310627893777564</v>
+        <v>-0.0002107705322487163</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4527996035929639</v>
+        <v>0.4492792071293138</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2580400.936380201</v>
+        <v>2653607.893966809</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005310627893777564</v>
+        <v>-0.0002107705322487163</v>
       </c>
       <c r="M10" t="n">
-        <v>2580401.022034503</v>
+        <v>2653607.908870326</v>
       </c>
       <c r="N10" t="n">
-        <v>58.49834192309719</v>
+        <v>57.02799941209544</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="n"/>
+      <c r="A11" s="25" t="n"/>
       <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5057.9766</v>
+        <v>5173.2775</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>177802.9507292249</v>
+        <v>167497.6703514399</v>
       </c>
       <c r="F11" t="n">
-        <v>177802.9514023246</v>
+        <v>167497.6686240634</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0006730990126015968</v>
+        <v>0.001727376532926428</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2735548009246541</v>
+        <v>0.2823127818756838</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>8092333.446671247</v>
+        <v>8276805.104666125</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0006730990126015968</v>
+        <v>0.001727376532926428</v>
       </c>
       <c r="M11" t="n">
-        <v>8092333.397722564</v>
+        <v>8276805.180257404</v>
       </c>
       <c r="N11" t="n">
-        <v>45.51293082895152</v>
+        <v>49.41444954363288</v>
       </c>
     </row>
     <row r="14">
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>875999.9944740143</v>
+        <v>876000.0150289923</v>
       </c>
     </row>
     <row r="16">
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86806847.95795719</v>
+        <v>93958020.68088801</v>
       </c>
     </row>
     <row r="17">
@@ -5359,7 +5359,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11592022.963635</v>
+        <v>11592023.2356371</v>
       </c>
     </row>
     <row r="18">
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>584.102890433817</v>
+        <v>626.5527613578471</v>
       </c>
     </row>
   </sheetData>

--- a/LCOA_PyPSA_results.xlsx
+++ b/LCOA_PyPSA_results.xlsx
@@ -1867,278 +1867,278 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>Optimal Capacity</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Installed Capacity</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Supply</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>Withdrawal</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Energy Balance</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
+        <is>
+          <t>Dispatch</t>
+        </is>
+      </c>
+      <c r="H1" s="25" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>Capacity Factor</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>Curtailment</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="25" t="inlineStr">
         <is>
           <t>Capital Expenditure</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="25" t="inlineStr">
         <is>
           <t>Operational Expenditure</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="25" t="inlineStr">
         <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="25" t="inlineStr">
         <is>
           <t>Market Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="inlineStr">
+      <c r="A2" s="26" t="inlineStr">
         <is>
           <t>Generator</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>solar</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>622.51098</v>
+        <v>357.37152</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>667611.88203</v>
+        <v>526231.6441334703</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>667611.88203</v>
+        <v>526231.6441334703</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1224257923932522</v>
+        <v>0.1680942720189016</v>
       </c>
       <c r="J2" t="n">
-        <v>493395.99704</v>
+        <v>140280.54008736</v>
       </c>
       <c r="K2" t="n">
-        <v>26425636.2399</v>
+        <v>17009737.51078478</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>26425635.873</v>
+        <v>17009737.66947515</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58233413898709</v>
+        <v>32.32366935569712</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n"/>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>504.84643</v>
+        <v>433.59434</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1272619.40384</v>
+        <v>1410916.998646914</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1272619.40384</v>
+        <v>1410916.998646914</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2877631322459783</v>
+        <v>0.3714614547791946</v>
       </c>
       <c r="J3" t="n">
-        <v>694115.88757</v>
+        <v>278240.8106561198</v>
       </c>
       <c r="K3" t="n">
-        <v>27694106.25937</v>
+        <v>28832901.87087144</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27694106.34511</v>
+        <v>28832901.8397498</v>
       </c>
       <c r="N3" t="n">
-        <v>21.76149897653566</v>
+        <v>20.43557620143548</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="inlineStr">
+      <c r="A4" s="26" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Electrolyser</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>308.98423</v>
+        <v>285.36131</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1068290.76344</v>
+        <v>1068290.75578655</v>
       </c>
       <c r="F4" t="n">
-        <v>1810662.31091</v>
+        <v>1810662.297943301</v>
       </c>
       <c r="G4" t="n">
-        <v>-742371.54747</v>
+        <v>-742371.5421567513</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6689552084907374</v>
+        <v>0.7243329845740419</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>16003791.61918</v>
+        <v>25006337.73859012</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>16003791.36468</v>
+        <v>25006337.40366895</v>
       </c>
       <c r="N4" t="n">
-        <v>14.9807448893408</v>
+        <v>23.40780098322331</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="A5" s="28" t="n"/>
+      <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15.597</v>
+        <v>131.86887</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>876000.01055</v>
+        <v>875999.9972201904</v>
       </c>
       <c r="F5" t="n">
-        <v>1192682.77436</v>
+        <v>1192682.75621526</v>
       </c>
       <c r="G5" t="n">
-        <v>-316682.76381</v>
+        <v>-316682.7589950696</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9104314932358787</v>
+        <v>0.9247899038872067</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6812563.44279</v>
+        <v>9914635.345156405</v>
       </c>
       <c r="L5" t="n">
-        <v>9505476.11444</v>
+        <v>11592022.99997506</v>
       </c>
       <c r="M5" t="n">
-        <v>16318041.42185</v>
+        <v>21506660.7697356</v>
       </c>
       <c r="N5" t="n">
-        <v>18.6279012</v>
+        <v>24.55098269176012</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34.09718</v>
+        <v>35.120399</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>93942.41955000001</v>
+        <v>111809.6034054903</v>
       </c>
       <c r="F6" t="n">
-        <v>93942.41955000001</v>
+        <v>111809.6034054903</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-2e-05</v>
+        <v>-0.0002340906667086529</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3145133996418472</v>
+        <v>0.3634256363884443</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -2147,39 +2147,42 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-2e-05</v>
+        <v>-0.0002340897062822478</v>
       </c>
       <c r="M6" t="n">
-        <v>-2e-05</v>
+        <v>-0.0002341144718229771</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2.093412391352613e-09</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="A7" s="27" t="n"/>
+      <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>133.94859</v>
+        <v>131.86887</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>292182.4636</v>
+        <v>342256.4423629496</v>
       </c>
       <c r="F7" t="n">
-        <v>292182.4636</v>
+        <v>342256.4423629496</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00048</v>
+        <v>0.001447104080398276</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2490071750661952</v>
+        <v>0.2962819817350127</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -2188,19 +2191,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00048</v>
+        <v>0.001447104049930203</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00048</v>
+        <v>0.001447082497179508</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.228054042194937e-09</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2233,156 +2239,156 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-102141431.905</v>
+        <v>-103475435.0800013</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>StorageUnit</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>348.13548</v>
+        <v>55.529384</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>70097.15597000001</v>
+        <v>28357.69896977197</v>
       </c>
       <c r="F9" t="n">
-        <v>75274.13464</v>
+        <v>30452.03788509918</v>
       </c>
       <c r="G9" t="n">
-        <v>-5176.97867</v>
+        <v>-2094.338915327198</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04766793663202613</v>
+        <v>0.1208988790553924</v>
       </c>
       <c r="J9" t="n">
-        <v>3054843.78347</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6420861.52649</v>
+        <v>1142295.299636881</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>6420861.55628</v>
+        <v>1142295.307530048</v>
       </c>
       <c r="N9" t="n">
-        <v>91.59944063704391</v>
+        <v>40.28166420511344</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="inlineStr">
+      <c r="A10" s="26" t="inlineStr">
         <is>
           <t>Store</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7587.2878</v>
+        <v>18886.688</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>46971.20979</v>
+        <v>55904.80181978997</v>
       </c>
       <c r="F10" t="n">
-        <v>46971.20976</v>
+        <v>55904.80158569932</v>
       </c>
       <c r="G10" t="n">
-        <v>2e-05</v>
+        <v>0.0002340906667086529</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09948332657158464</v>
+        <v>0.5190814858371303</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>73115.07264</v>
+        <v>2151726.373221775</v>
       </c>
       <c r="L10" t="n">
-        <v>2e-05</v>
+        <v>0.0002340906667086529</v>
       </c>
       <c r="M10" t="n">
-        <v>73115.05476</v>
+        <v>2151726.378388503</v>
       </c>
       <c r="N10" t="n">
-        <v>1.556593516237381</v>
+        <v>38.48911557409076</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1815.2585</v>
+        <v>4891.369</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>146091.23156</v>
+        <v>171128.220457923</v>
       </c>
       <c r="F11" t="n">
-        <v>146091.23204</v>
+        <v>171128.2219050265</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.00048</v>
+        <v>-0.001447104080398276</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1221469394028454</v>
+        <v>0.3513127796906561</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>9205881.785630001</v>
+        <v>7825775.42148196</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.00048</v>
+        <v>-0.001447104080398276</v>
       </c>
       <c r="M11" t="n">
-        <v>9205881.70026</v>
+        <v>7825775.370262333</v>
       </c>
       <c r="N11" t="n">
-        <v>63.0146128698789</v>
+        <v>45.73047828885981</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="25" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="25" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -2395,7 +2401,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>876000.01055</v>
+        <v>875999.9972201904</v>
       </c>
     </row>
     <row r="16">
@@ -2405,7 +2411,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92635955.94600001</v>
+        <v>91883409.55974337</v>
       </c>
     </row>
     <row r="17">
@@ -2415,7 +2421,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9505476.11444</v>
+        <v>11592022.99997506</v>
       </c>
     </row>
     <row r="18">
@@ -2425,7 +2431,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>606.3189957963729</v>
+        <v>614.2377294726026</v>
       </c>
     </row>
   </sheetData>
@@ -2453,278 +2459,278 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>Optimal Capacity</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Installed Capacity</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Supply</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>Withdrawal</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Energy Balance</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
+        <is>
+          <t>Dispatch</t>
+        </is>
+      </c>
+      <c r="H1" s="25" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>Capacity Factor</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>Curtailment</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="25" t="inlineStr">
         <is>
           <t>Capital Expenditure</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="25" t="inlineStr">
         <is>
           <t>Operational Expenditure</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="25" t="inlineStr">
         <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="25" t="inlineStr">
         <is>
           <t>Market Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="inlineStr">
+      <c r="A2" s="26" t="inlineStr">
         <is>
           <t>Generator</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>solar</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>356.67066</v>
+        <v>250.76599</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>414866.35039</v>
+        <v>352213.71945895</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>414866.35039</v>
+        <v>352213.71945895</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1327812329727374</v>
+        <v>0.1603369165026595</v>
       </c>
       <c r="J2" t="n">
-        <v>250338.69934</v>
+        <v>115474.88346922</v>
       </c>
       <c r="K2" t="n">
-        <v>15140695.37955</v>
+        <v>11935656.39067176</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>15140695.41499</v>
+        <v>11935656.22453383</v>
       </c>
       <c r="N2" t="n">
-        <v>36.49535855463683</v>
+        <v>33.88753919883838</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n"/>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555.19643</v>
+        <v>380.91478</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1521346.25345</v>
+        <v>1583892.547283498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1521346.25345</v>
+        <v>1583892.547283498</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3128075949623811</v>
+        <v>0.4746721865619959</v>
       </c>
       <c r="J3" t="n">
-        <v>1216338.45104</v>
+        <v>294405.8526663401</v>
       </c>
       <c r="K3" t="n">
-        <v>30456130.84209</v>
+        <v>25329847.41660738</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30456131.08678</v>
+        <v>25329847.02210322</v>
       </c>
       <c r="N3" t="n">
-        <v>20.01919788407486</v>
+        <v>15.99214988765864</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="inlineStr">
+      <c r="A4" s="26" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Electrolyser</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>290.97055</v>
+        <v>266.28857</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1068290.76146</v>
+        <v>1068290.751775615</v>
       </c>
       <c r="F4" t="n">
-        <v>1810662.30755</v>
+        <v>1810662.291145109</v>
       </c>
       <c r="G4" t="n">
-        <v>-742371.5461</v>
+        <v>-742371.5393694944</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.710369520214331</v>
+        <v>0.7762128452535837</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15070775.77881</v>
+        <v>23334985.10133065</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15070775.69845</v>
+        <v>23334985.32449735</v>
       </c>
       <c r="N4" t="n">
-        <v>14.10737246927044</v>
+        <v>21.84329058892632</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="A5" s="28" t="n"/>
+      <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15.59251</v>
+        <v>130.60305</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>875999.99578</v>
+        <v>876000.0153225533</v>
       </c>
       <c r="F5" t="n">
-        <v>1192682.75425</v>
+        <v>1192682.780861798</v>
       </c>
       <c r="G5" t="n">
-        <v>-316682.75847</v>
+        <v>-316682.765539245</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9106936599687926</v>
+        <v>0.9337530948404763</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6810599.64967</v>
+        <v>9819463.954724334</v>
       </c>
       <c r="L5" t="n">
-        <v>9505475.954190001</v>
+        <v>11592023.23952172</v>
       </c>
       <c r="M5" t="n">
-        <v>16316074.87124</v>
+        <v>21411487.85761341</v>
       </c>
       <c r="N5" t="n">
-        <v>18.6256562</v>
+        <v>24.44233730946855</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34.11617</v>
+        <v>35.743185</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>90007.83919</v>
+        <v>100701.0465328197</v>
       </c>
       <c r="F6" t="n">
-        <v>90007.83919</v>
+        <v>100701.0465328197</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0003</v>
+        <v>-0.0001636194642742339</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3011730214733952</v>
+        <v>0.3216152465755684</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -2733,39 +2739,42 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003</v>
+        <v>-0.0001636201504879864</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003</v>
+        <v>-0.0001635993830859661</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1.62428865666006e-09</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="A7" s="27" t="n"/>
+      <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>133.90998</v>
+        <v>130.60305</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>242917.2071</v>
+        <v>280235.9323656857</v>
       </c>
       <c r="F7" t="n">
-        <v>242917.2071</v>
+        <v>280235.9323656857</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00011</v>
+        <v>-0.0004707852958745207</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2070814288822984</v>
+        <v>0.2449437684502151</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -2774,19 +2783,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00011</v>
+        <v>-0.0004707854131993372</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00011</v>
+        <v>-0.0004708040505647659</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.679885762564217e-09</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2819,156 +2831,156 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-87730842.918</v>
+        <v>-91954521.94420055</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>StorageUnit</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>61.69789</v>
+        <v>28.159795</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>15683.64579</v>
+        <v>14243.74630873001</v>
       </c>
       <c r="F9" t="n">
-        <v>16841.95098</v>
+        <v>15295.70868039399</v>
       </c>
       <c r="G9" t="n">
-        <v>-1158.30519</v>
+        <v>-1051.962371663976</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06017985380051084</v>
+        <v>0.1197481694333372</v>
       </c>
       <c r="J9" t="n">
-        <v>541631.8215899999</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1137929.42956</v>
+        <v>579275.316060379</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1137929.42993</v>
+        <v>579275.3134824584</v>
       </c>
       <c r="N9" t="n">
-        <v>72.55518133123321</v>
+        <v>40.66874689613215</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="inlineStr">
+      <c r="A10" s="26" t="inlineStr">
         <is>
           <t>Store</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7986.0518</v>
+        <v>17964.476</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>45003.91944</v>
+        <v>50350.52334821995</v>
       </c>
       <c r="F10" t="n">
-        <v>45003.91975</v>
+        <v>50350.52318460058</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0003</v>
+        <v>0.0001636194642742339</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.103133313009565</v>
+        <v>0.4840068162985</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>76957.77106</v>
+        <v>2046660.419778715</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0003</v>
+        <v>0.0001636194642742339</v>
       </c>
       <c r="M10" t="n">
-        <v>76957.75823000001</v>
+        <v>2046660.408951803</v>
       </c>
       <c r="N10" t="n">
-        <v>1.710024272836808</v>
+        <v>40.64824500030028</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1879.6188</v>
+        <v>4573.124</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>121458.6035</v>
+        <v>140117.9664182353</v>
       </c>
       <c r="F11" t="n">
-        <v>121458.60361</v>
+        <v>140117.9659474504</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.00011</v>
+        <v>0.0004707852972387627</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1111953604635153</v>
+        <v>0.3718074562571309</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>9532277.89587</v>
+        <v>7316610.421047618</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.00011</v>
+        <v>0.0004707852972387627</v>
       </c>
       <c r="M11" t="n">
-        <v>9532278.063030001</v>
+        <v>7316610.420921431</v>
       </c>
       <c r="N11" t="n">
-        <v>78.48168860898627</v>
+        <v>52.21750363605982</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="25" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="25" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -2981,7 +2993,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>875999.99578</v>
+        <v>876000.0153225533</v>
       </c>
     </row>
     <row r="16">
@@ -2991,7 +3003,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78225366.74661</v>
+        <v>80362499.02022083</v>
       </c>
     </row>
     <row r="17">
@@ -3001,7 +3013,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9505475.954190001</v>
+        <v>11592023.23952172</v>
       </c>
     </row>
     <row r="18">
@@ -3011,7 +3023,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>520.7766943399974</v>
+        <v>545.8487527247314</v>
       </c>
     </row>
   </sheetData>
@@ -3039,278 +3051,278 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>Optimal Capacity</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Installed Capacity</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Supply</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>Withdrawal</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Energy Balance</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
+        <is>
+          <t>Dispatch</t>
+        </is>
+      </c>
+      <c r="H1" s="25" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>Capacity Factor</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>Curtailment</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="25" t="inlineStr">
         <is>
           <t>Capital Expenditure</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="25" t="inlineStr">
         <is>
           <t>Operational Expenditure</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="25" t="inlineStr">
         <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="25" t="inlineStr">
         <is>
           <t>Market Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="inlineStr">
+      <c r="A2" s="26" t="inlineStr">
         <is>
           <t>Generator</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>solar</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>479.16759</v>
+        <v>419.45549</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>550372.42165</v>
+        <v>545515.63326769</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>550372.42165</v>
+        <v>545515.63326769</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1311188429918643</v>
+        <v>0.1484626512274668</v>
       </c>
       <c r="J2" t="n">
-        <v>288486.15432</v>
+        <v>188807.48015614</v>
       </c>
       <c r="K2" t="n">
-        <v>20340698.94042</v>
+        <v>19964735.24906968</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>20340699.05704</v>
+        <v>19964735.31145864</v>
       </c>
       <c r="N2" t="n">
-        <v>36.95806496795213</v>
+        <v>36.59791597881073</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n"/>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="25" t="n"/>
+      <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>500.89934</v>
+        <v>413.60928</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1386349.51572</v>
+        <v>1391263.809231647</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1386349.51572</v>
+        <v>1391263.809231647</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.315949867292698</v>
+        <v>0.3839857499014338</v>
       </c>
       <c r="J3" t="n">
-        <v>701609.8169100001</v>
+        <v>332833.8092510601</v>
       </c>
       <c r="K3" t="n">
-        <v>27477582.73186</v>
+        <v>27503947.08363073</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27477583.11405</v>
+        <v>27503947.32183965</v>
       </c>
       <c r="N3" t="n">
-        <v>19.82009752615774</v>
+        <v>19.76903815030534</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="inlineStr">
+      <c r="A4" s="26" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Electrolyser</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>307.87947</v>
+        <v>291.62872</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1068290.76151</v>
+        <v>1068290.764182045</v>
       </c>
       <c r="F4" t="n">
-        <v>1810662.30765</v>
+        <v>1810662.312172942</v>
       </c>
       <c r="G4" t="n">
-        <v>-742371.54614</v>
+        <v>-742371.5479908963</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6713556119867297</v>
+        <v>0.7087663073055628</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15946570.7415</v>
+        <v>25555553.64738384</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15946570.42686</v>
+        <v>25555552.80652139</v>
       </c>
       <c r="N4" t="n">
-        <v>14.92718181892727</v>
+        <v>23.92190746504179</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="A5" s="25" t="n"/>
+      <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.78732</v>
+        <v>132.25208</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>875999.99284</v>
+        <v>875999.9785011932</v>
       </c>
       <c r="F5" t="n">
-        <v>1192682.75025</v>
+        <v>1192682.730729164</v>
       </c>
       <c r="G5" t="n">
-        <v>-316682.75741</v>
+        <v>-316682.7522279703</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.960282187712175</v>
+        <v>0.9221102383197201</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6458907.27665</v>
+        <v>9943447.205079202</v>
       </c>
       <c r="L5" t="n">
-        <v>9505475.92227</v>
+        <v>11592022.75226851</v>
       </c>
       <c r="M5" t="n">
-        <v>15964381.92874</v>
+        <v>21535469.23137828</v>
       </c>
       <c r="N5" t="n">
-        <v>18.2241803</v>
+        <v>24.58386958892826</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="25" t="n"/>
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37.51834</v>
+        <v>34.931858</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>61344.38413</v>
+        <v>113150.7644268932</v>
       </c>
       <c r="F6" t="n">
-        <v>61344.38413</v>
+        <v>113150.7644268932</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00049</v>
+        <v>-0.0006907275205207952</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1866495159434026</v>
+        <v>0.3697700228258862</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -3319,39 +3331,42 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00049</v>
+        <v>-0.0006907268782470055</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00049</v>
+        <v>-0.0006907670758664608</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-6.10427742803203e-09</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="A7" s="25" t="n"/>
+      <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>126.99501</v>
+        <v>132.25208</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>375080.44756</v>
+        <v>353533.8296064712</v>
       </c>
       <c r="F7" t="n">
-        <v>375080.44756</v>
+        <v>353533.8296064712</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.00088</v>
+        <v>-0.0003802970368269598</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3371581292839774</v>
+        <v>0.3051577193021205</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -3360,19 +3375,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00088</v>
+        <v>-0.0003802970313699916</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.00088</v>
+        <v>-0.0003802413120865822</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.075626081006286e-09</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3395,6 +3413,7 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -3405,156 +3424,157 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-96737102.543</v>
-      </c>
+        <v>-106400833.7040003</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>StorageUnit</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>65.5825</v>
+        <v>53.373934</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>22580.01098</v>
+        <v>23358.62451665699</v>
       </c>
       <c r="F9" t="n">
-        <v>24247.64261</v>
+        <v>25083.76015679</v>
       </c>
       <c r="G9" t="n">
-        <v>-1667.63162</v>
+        <v>-1725.135640133002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08150985400068617</v>
+        <v>0.1036077383445829</v>
       </c>
       <c r="J9" t="n">
-        <v>576170.3754200001</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1209575.60305</v>
+        <v>1097955.52443602</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1209575.61585</v>
+        <v>1097955.517217348</v>
       </c>
       <c r="N9" t="n">
-        <v>53.56835930680509</v>
+        <v>47.0042881349626</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="inlineStr">
+      <c r="A10" s="26" t="inlineStr">
         <is>
           <t>Store</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14943.485</v>
+        <v>33171.925</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>30672.19182</v>
+        <v>56575.38255880995</v>
       </c>
       <c r="F10" t="n">
-        <v>30672.19231</v>
+        <v>56575.38186808219</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00049</v>
+        <v>0.0006907275205207952</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3510740955004806</v>
+        <v>0.4638424959294498</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>144003.23542</v>
+        <v>3779217.715304808</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.00049</v>
+        <v>0.0006907275205207952</v>
       </c>
       <c r="M10" t="n">
-        <v>144003.28866</v>
+        <v>3779217.626682021</v>
       </c>
       <c r="N10" t="n">
-        <v>4.694915447864991</v>
+        <v>66.79968310869916</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="A11" s="25" t="n"/>
+      <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3086.7853</v>
+        <v>4352.7029</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>187540.22422</v>
+        <v>176766.914993384</v>
       </c>
       <c r="F11" t="n">
-        <v>187540.22334</v>
+        <v>176766.9146130881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00088</v>
+        <v>0.0003802970368269598</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2279142251973275</v>
+        <v>0.316152405945446</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>15654288.66986</v>
+        <v>6963955.361338155</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00088</v>
+        <v>0.0003802970368269598</v>
       </c>
       <c r="M11" t="n">
-        <v>15654288.67818</v>
+        <v>6963955.356167913</v>
       </c>
       <c r="N11" t="n">
-        <v>83.47163816579241</v>
+        <v>39.39626007745044</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="25" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="25" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -3567,7 +3587,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>875999.99284</v>
+        <v>875999.9785011932</v>
       </c>
     </row>
     <row r="16">
@@ -3577,7 +3597,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87231627.19876</v>
+        <v>94808811.78624243</v>
       </c>
     </row>
     <row r="17">
@@ -3587,7 +3607,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9505475.922269998</v>
+        <v>11592022.75226851</v>
       </c>
     </row>
     <row r="18">
@@ -3597,7 +3617,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>574.2385163708948</v>
+        <v>631.6031428983686</v>
       </c>
     </row>
   </sheetData>
@@ -3625,278 +3645,278 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>Optimal Capacity</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Installed Capacity</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Supply</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>Withdrawal</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Energy Balance</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
+        <is>
+          <t>Dispatch</t>
+        </is>
+      </c>
+      <c r="H1" s="25" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>Capacity Factor</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>Curtailment</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="25" t="inlineStr">
         <is>
           <t>Capital Expenditure</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="25" t="inlineStr">
         <is>
           <t>Operational Expenditure</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="25" t="inlineStr">
         <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="25" t="inlineStr">
         <is>
           <t>Market Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="inlineStr">
+      <c r="A2" s="26" t="inlineStr">
         <is>
           <t>Generator</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>solar</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>476.02316</v>
+        <v>334.66006</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>556933.3171700001</v>
+        <v>425680.48572391</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>556933.3171700001</v>
+        <v>425680.48572391</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1335583335903236</v>
+        <v>0.1452030539702616</v>
       </c>
       <c r="J2" t="n">
-        <v>276420.43671</v>
+        <v>160194.82748441</v>
       </c>
       <c r="K2" t="n">
-        <v>20207217.65892</v>
+        <v>15928744.89814825</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>20207217.34297</v>
+        <v>15928744.98501908</v>
       </c>
       <c r="N2" t="n">
-        <v>36.28301193232884</v>
+        <v>37.41948602114269</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n"/>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>356.33879</v>
+        <v>373.16798</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1379683.38044</v>
+        <v>1510691.941216801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1379683.38044</v>
+        <v>1510691.941216801</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4419897704653484</v>
+        <v>0.4621334819432357</v>
       </c>
       <c r="J3" t="n">
-        <v>357001.06739</v>
+        <v>308012.74517076</v>
       </c>
       <c r="K3" t="n">
-        <v>19547497.47283</v>
+        <v>24814705.25812518</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>19547497.52798</v>
+        <v>24814705.56754098</v>
       </c>
       <c r="N3" t="n">
-        <v>14.16810418665368</v>
+        <v>16.42605278449668</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="inlineStr">
+      <c r="A4" s="26" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Electrolyser</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>308.70492</v>
+        <v>278.52541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1068290.75781</v>
+        <v>1068290.767853872</v>
       </c>
       <c r="F4" t="n">
-        <v>1810662.30138</v>
+        <v>1810662.318396406</v>
       </c>
       <c r="G4" t="n">
-        <v>-742371.54356</v>
+        <v>-742371.5505425341</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6695604657029761</v>
+        <v>0.7421104296699099</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15989324.79983</v>
+        <v>24407304.79979675</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15989325.0997</v>
+        <v>24407305.12881637</v>
       </c>
       <c r="N4" t="n">
-        <v>14.96720338496609</v>
+        <v>22.84706173942591</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="A5" s="28" t="n"/>
+      <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.89296</v>
+        <v>130.77983</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>876000.00681</v>
+        <v>875999.997823712</v>
       </c>
       <c r="F5" t="n">
-        <v>1192682.76928</v>
+        <v>1192682.757036965</v>
       </c>
       <c r="G5" t="n">
-        <v>-316682.76246</v>
+        <v>-316682.7592132527</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9534706331045003</v>
+        <v>0.932490887142404</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6505045.93211</v>
+        <v>9832755.258701663</v>
       </c>
       <c r="L5" t="n">
-        <v>9505476.073930001</v>
+        <v>11592023.00796144</v>
       </c>
       <c r="M5" t="n">
-        <v>16010520.74655</v>
+        <v>21424778.53552937</v>
       </c>
       <c r="N5" t="n">
-        <v>18.2768502</v>
+        <v>24.45750980451642</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37.07201</v>
+        <v>35.656208</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>70516.64662</v>
+        <v>100703.1749698602</v>
       </c>
       <c r="F6" t="n">
-        <v>70516.64662</v>
+        <v>100703.1749698602</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00054</v>
+        <v>-0.0002621998810354853</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2171409103525813</v>
+        <v>0.3224065842737988</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -3905,39 +3925,42 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00054</v>
+        <v>-0.0002622000794190171</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00054</v>
+        <v>-0.0002622101455926895</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2.604014694027005e-09</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="A7" s="27" t="n"/>
+      <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>127.90218</v>
+        <v>130.77983</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>359253.62484</v>
+        <v>319230.9654092087</v>
       </c>
       <c r="F7" t="n">
-        <v>359253.62484</v>
+        <v>319230.9654092087</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.00059</v>
+        <v>0.001463571010162923</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3206410555316571</v>
+        <v>0.2786506988764889</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -3946,19 +3969,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00059</v>
+        <v>0.001463571013800902</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.00059</v>
+        <v>0.001463590189814568</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.584807772990661e-09</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3991,156 +4017,156 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-87662601.433</v>
+        <v>-97950135.42139831</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>StorageUnit</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>58.00187</v>
+        <v>43.780978</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>21155.02773</v>
+        <v>17847.52844750699</v>
       </c>
       <c r="F9" t="n">
-        <v>22717.41817</v>
+        <v>19165.64570054098</v>
       </c>
       <c r="G9" t="n">
-        <v>-1562.39044</v>
+        <v>-1318.117253034002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08634669882195178</v>
+        <v>0.09650876667068603</v>
       </c>
       <c r="J9" t="n">
-        <v>509658.76288</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1069761.60294</v>
+        <v>900618.7675862875</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1069761.59191</v>
+        <v>900618.7812548036</v>
       </c>
       <c r="N9" t="n">
-        <v>50.56766985788584</v>
+        <v>50.46182074474324</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="inlineStr">
+      <c r="A10" s="26" t="inlineStr">
         <is>
           <t>Store</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16434.728</v>
+        <v>31960.412</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>35258.32304</v>
+        <v>50351.58761603022</v>
       </c>
       <c r="F10" t="n">
-        <v>35258.32358</v>
+        <v>50351.58735383039</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00054</v>
+        <v>0.0002621998810354853</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3505522579990372</v>
+        <v>0.4681447267941336</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>158373.63274</v>
+        <v>3641192.219590523</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.00054</v>
+        <v>0.0002621998810354853</v>
       </c>
       <c r="M10" t="n">
-        <v>158373.5312</v>
+        <v>3641192.358120204</v>
       </c>
       <c r="N10" t="n">
-        <v>4.491808532840404</v>
+        <v>72.31534357738985</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2894.652</v>
+        <v>4270.7204</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>179626.81272</v>
+        <v>159615.481972819</v>
       </c>
       <c r="F11" t="n">
-        <v>179626.81212</v>
+        <v>159615.4834363903</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00059</v>
+        <v>-0.001463571009480802</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2291794315862494</v>
+        <v>0.3257106004851471</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>14679905.98723</v>
+        <v>6832790.316645832</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00059</v>
+        <v>-0.001463571009480802</v>
       </c>
       <c r="M11" t="n">
-        <v>14679905.87318</v>
+        <v>6832790.316063895</v>
       </c>
       <c r="N11" t="n">
-        <v>81.7244844513673</v>
+        <v>42.80781683337896</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="25" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="25" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -4153,7 +4179,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>876000.00681</v>
+        <v>875999.997823712</v>
       </c>
     </row>
     <row r="16">
@@ -4163,7 +4189,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78157127.08660001</v>
+        <v>86358111.51859449</v>
       </c>
     </row>
     <row r="17">
@@ -4173,7 +4199,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9505476.073930001</v>
+        <v>11592023.00796143</v>
       </c>
     </row>
     <row r="18">
@@ -4183,7 +4209,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>520.3716128892983</v>
+        <v>581.4391561683447</v>
       </c>
     </row>
   </sheetData>
@@ -4913,7 +4939,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="n"/>
+      <c r="A3" s="27" t="n"/>
       <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
@@ -5005,7 +5031,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="n"/>
+      <c r="A5" s="28" t="n"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
@@ -5049,7 +5075,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="n"/>
+      <c r="A6" s="28" t="n"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
@@ -5093,7 +5119,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="n"/>
+      <c r="A7" s="27" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
@@ -5165,7 +5191,6 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -5178,7 +5203,6 @@
       <c r="M8" t="n">
         <v>-105550043.8160016</v>
       </c>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="25" t="inlineStr">
@@ -5277,7 +5301,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="n"/>
+      <c r="A11" s="27" t="n"/>
       <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>

--- a/LCOA_PyPSA_results.xlsx
+++ b/LCOA_PyPSA_results.xlsx
@@ -3161,7 +3161,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="n"/>
+      <c r="A3" s="27" t="n"/>
       <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
@@ -3253,7 +3253,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="n"/>
+      <c r="A5" s="28" t="n"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
@@ -3297,7 +3297,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="n"/>
+      <c r="A6" s="28" t="n"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
@@ -3341,7 +3341,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="n"/>
+      <c r="A7" s="27" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
@@ -3413,7 +3413,6 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -3426,7 +3425,6 @@
       <c r="M8" t="n">
         <v>-106400833.7040003</v>
       </c>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="25" t="inlineStr">
@@ -3525,7 +3523,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="n"/>
+      <c r="A11" s="27" t="n"/>
       <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
@@ -4310,84 +4308,84 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>498.06036</v>
+        <v>491.0377</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>641301.0951105601</v>
+        <v>632556.61968711</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>641301.0951105601</v>
+        <v>632556.61968711</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1469859748920766</v>
+        <v>0.147055225661153</v>
       </c>
       <c r="J2" t="n">
-        <v>181502.4422655519</v>
+        <v>178645.37256398</v>
       </c>
       <c r="K2" t="n">
-        <v>23706074.81012189</v>
+        <v>23371818.73054541</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>23706074.9508638</v>
+        <v>23371818.7324545</v>
       </c>
       <c r="N2" t="n">
-        <v>36.96559249875737</v>
+        <v>36.94818456569977</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="n"/>
+      <c r="A3" s="25" t="n"/>
       <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>473.27868</v>
+        <v>466.76337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1324724.022055071</v>
+        <v>1306077.962209599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1324724.022055071</v>
+        <v>1306077.962209599</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3195246475732738</v>
+        <v>0.3194245036547839</v>
       </c>
       <c r="J3" t="n">
-        <v>272183.08545635</v>
+        <v>268845.5981083991</v>
       </c>
       <c r="K3" t="n">
-        <v>31471807.81468588</v>
+        <v>31038556.55525222</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>31471807.54236151</v>
+        <v>31038556.53982739</v>
       </c>
       <c r="N3" t="n">
-        <v>23.75725586491491</v>
+        <v>23.76470428098861</v>
       </c>
     </row>
     <row r="4">
@@ -4402,113 +4400,113 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>297.06287</v>
+        <v>296.05771</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1068290.751890159</v>
+        <v>1068290.758459571</v>
       </c>
       <c r="F4" t="n">
-        <v>1810662.291339254</v>
+        <v>1810662.302473841</v>
       </c>
       <c r="G4" t="n">
-        <v>-742371.539449095</v>
+        <v>-742371.5440142702</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6958008875372803</v>
+        <v>0.6981632394287055</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>26031750.61403696</v>
+        <v>25943667.99890837</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>26031751.47735161</v>
+        <v>25943667.8071617</v>
       </c>
       <c r="N4" t="n">
-        <v>24.36766529270492</v>
+        <v>24.28521224368868</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="n"/>
+      <c r="A5" s="25" t="n"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>131.70442</v>
+        <v>131.70582</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>876000.0207935935</v>
+        <v>876000.0183557372</v>
       </c>
       <c r="F5" t="n">
-        <v>1219988.076878838</v>
+        <v>1192682.784991522</v>
       </c>
       <c r="G5" t="n">
-        <v>-343988.0560852446</v>
+        <v>-316682.7666357846</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9259446485907528</v>
+        <v>0.9259348034533702</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>9902271.079181343</v>
+        <v>9902376.338970732</v>
       </c>
       <c r="L5" t="n">
-        <v>11592023.31191969</v>
+        <v>11592023.27965964</v>
       </c>
       <c r="M5" t="n">
-        <v>21494293.60706124</v>
+        <v>21494398.50771629</v>
       </c>
       <c r="N5" t="n">
-        <v>24.53686426581334</v>
+        <v>24.53698408369945</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="n"/>
+      <c r="A6" s="25" t="n"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35.201311</v>
+        <v>35.200622</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>108450.6840391261</v>
+        <v>108404.7157789306</v>
       </c>
       <c r="F6" t="n">
-        <v>108450.6840391261</v>
+        <v>108404.7157789306</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.000497146655106917</v>
+        <v>-0.0009200225285894703</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3516975567461</v>
+        <v>0.3515553661146246</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -4517,42 +4515,42 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0004971458420186536</v>
+        <v>-0.0009200232925650198</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004971693269908428</v>
+        <v>-0.0009200111962854862</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.584383412373058e-09</v>
+        <v>-8.486806698009722e-09</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="n"/>
+      <c r="A7" s="25" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>131.70442</v>
+        <v>131.70582</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>368680.8248146373</v>
+        <v>364178.8738114332</v>
       </c>
       <c r="F7" t="n">
-        <v>368680.8248146373</v>
+        <v>364178.8738114332</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.001196602773461564</v>
+        <v>-5.214291513766511e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3195553508970281</v>
+        <v>0.3156499143347808</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -4561,13 +4559,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.001196602857589824</v>
+        <v>-5.214296629674209e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.001196608878672123</v>
+        <v>-5.222856998443604e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>-3.245536016387065e-09</v>
+        <v>-1.431855466646022e-10</v>
       </c>
     </row>
     <row r="8">
@@ -4599,6 +4597,7 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -4609,8 +4608,9 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-115586113.5558973</v>
-      </c>
+        <v>-114583742.4676979</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="25" t="inlineStr">
@@ -4624,40 +4624,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>91.33242300000001</v>
+        <v>89.74455</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>49631.82455070817</v>
+        <v>48477.60845142997</v>
       </c>
       <c r="F9" t="n">
-        <v>53297.34978118995</v>
+        <v>52057.88979522099</v>
       </c>
       <c r="G9" t="n">
-        <v>-3665.525230481805</v>
+        <v>-3580.281343791002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1286498853276944</v>
+        <v>0.1278813593804588</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1878799.835008928</v>
+        <v>1846135.689764307</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1878799.844273967</v>
+        <v>1846135.699611556</v>
       </c>
       <c r="N9" t="n">
-        <v>37.8547406081036</v>
+        <v>38.0822354605469</v>
       </c>
     </row>
     <row r="10">
@@ -4672,84 +4672,84 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25460.487</v>
+        <v>25462.197</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>54225.34226813618</v>
+        <v>54202.35834947717</v>
       </c>
       <c r="F10" t="n">
-        <v>54225.34177098911</v>
+        <v>54202.35742945455</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000497146655106917</v>
+        <v>0.0009200225285894703</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4277554526197086</v>
+        <v>0.4276846945636308</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2900667.462340149</v>
+        <v>2900862.27956264</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000497146655106917</v>
+        <v>0.0009200225285894703</v>
       </c>
       <c r="M10" t="n">
-        <v>2900667.570487224</v>
+        <v>2900862.315955255</v>
       </c>
       <c r="N10" t="n">
-        <v>53.49284023222694</v>
+        <v>53.5191162209516</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="n"/>
+      <c r="A11" s="25" t="n"/>
       <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5064.4683</v>
+        <v>4992.9548</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>184340.4130056199</v>
+        <v>182089.4369317884</v>
       </c>
       <c r="F11" t="n">
-        <v>184340.4118090167</v>
+        <v>182089.4368796445</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001196602763911869</v>
+        <v>5.214291718402819e-05</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2912016108879386</v>
+        <v>0.2912925344744648</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>8102719.615922358</v>
+        <v>7988304.083051263</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001196602763911869</v>
+        <v>5.214291718402819e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>8102719.555755445</v>
+        <v>7988303.936623202</v>
       </c>
       <c r="N11" t="n">
-        <v>43.95519909955109</v>
+        <v>43.87022153083839</v>
       </c>
     </row>
     <row r="14">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>876000.0207935935</v>
+        <v>876000.0183557372</v>
       </c>
     </row>
     <row r="16">
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103994091.2312975</v>
+        <v>102991721.6760549</v>
       </c>
     </row>
     <row r="17">
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11592023.31191969</v>
+        <v>11592023.27965964</v>
       </c>
     </row>
     <row r="18">
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>686.1276042895788</v>
+        <v>680.1774672198139</v>
       </c>
     </row>
   </sheetData>
@@ -5421,278 +5421,278 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>Optimal Capacity</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Installed Capacity</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Supply</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>Withdrawal</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Energy Balance</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
+        <is>
+          <t>Dispatch</t>
+        </is>
+      </c>
+      <c r="H1" s="25" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>Capacity Factor</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>Curtailment</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="25" t="inlineStr">
         <is>
           <t>Capital Expenditure</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="25" t="inlineStr">
         <is>
           <t>Operational Expenditure</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="25" t="inlineStr">
         <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="25" t="inlineStr">
         <is>
           <t>Market Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="inlineStr">
+      <c r="A2" s="26" t="inlineStr">
         <is>
           <t>Generator</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>solar</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>400.52243</v>
+        <v>466.17442</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>407214.13289</v>
+        <v>562647.4985286598</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>407214.13289</v>
+        <v>562647.4985286598</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1160624886850906</v>
+        <v>0.1377792597429637</v>
       </c>
       <c r="J2" t="n">
-        <v>258056.79061</v>
+        <v>211671.8989970179</v>
       </c>
       <c r="K2" t="n">
-        <v>17002206.19579</v>
+        <v>22188406.39131606</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>17002206.34174</v>
+        <v>22188406.5317782</v>
       </c>
       <c r="N2" t="n">
-        <v>41.75249706199529</v>
+        <v>39.43571523876238</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n"/>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>999.53217</v>
+        <v>467.1495</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1529125.44776</v>
+        <v>1374654.249352331</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1529125.44776</v>
+        <v>1374654.249352331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1746394015512277</v>
+        <v>0.3359181612473474</v>
       </c>
       <c r="J3" t="n">
-        <v>2217098.13867</v>
+        <v>376211.3346121699</v>
       </c>
       <c r="K3" t="n">
-        <v>54830832.66655</v>
+        <v>31064233.20130668</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>54830833.05919</v>
+        <v>31064233.09717453</v>
       </c>
       <c r="N3" t="n">
-        <v>35.85764202896807</v>
+        <v>22.59785186843196</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="inlineStr">
+      <c r="A4" s="26" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Electrolyser</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>309.66186</v>
+        <v>298.99591</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1068290.75286</v>
+        <v>1068290.757641756</v>
       </c>
       <c r="F4" t="n">
-        <v>1810662.29298</v>
+        <v>1810662.301087716</v>
       </c>
       <c r="G4" t="n">
-        <v>-742371.54012</v>
+        <v>-742371.5434459604</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6674913403930338</v>
+        <v>0.6913024653521518</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>16038889.36289</v>
+        <v>26201143.76373271</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>16038888.21619</v>
+        <v>26201144.61798178</v>
       </c>
       <c r="N4" t="n">
-        <v>15.0135981664767</v>
+        <v>24.52622980266229</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="A5" s="28" t="n"/>
+      <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.46797</v>
+        <v>131.28506</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>875999.99341</v>
+        <v>876000.0090151001</v>
       </c>
       <c r="F5" t="n">
-        <v>1192682.75103</v>
+        <v>1192682.772274148</v>
       </c>
       <c r="G5" t="n">
-        <v>-316682.75762</v>
+        <v>-316682.7632590476</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9814783967619507</v>
+        <v>0.928902353817135</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6319415.50454</v>
+        <v>9870741.261125384</v>
       </c>
       <c r="L5" t="n">
-        <v>9505475.928479999</v>
+        <v>11592023.15605588</v>
       </c>
       <c r="M5" t="n">
-        <v>15824891.9032</v>
+        <v>21462765.02196079</v>
       </c>
       <c r="N5" t="n">
-        <v>18.0649451</v>
+        <v>24.50087306059726</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38.86775</v>
+        <v>35.407635</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>30946.00507</v>
+        <v>104835.3080856641</v>
       </c>
       <c r="F6" t="n">
-        <v>30946.00507</v>
+        <v>104835.3080856641</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.00035</v>
+        <v>-0.0002678043592823087</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09088897607914015</v>
+        <v>0.3379921003766856</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -5701,39 +5701,42 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.00035</v>
+        <v>-0.0002678038808880956</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.00035</v>
+        <v>-0.0002678781747817993</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2.554897145309511e-09</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="A7" s="27" t="n"/>
+      <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>124.25232</v>
+        <v>131.28506</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>330420.41102</v>
+        <v>353931.3764863742</v>
       </c>
       <c r="F7" t="n">
-        <v>330420.41102</v>
+        <v>353931.3764863742</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.00072</v>
+        <v>0.001078938296302567</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3035696234887204</v>
+        <v>0.3077511269726921</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -5742,19 +5745,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00072</v>
+        <v>0.001078938273337826</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.00072</v>
+        <v>0.001078936271369457</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.048439953121049e-09</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5787,156 +5793,156 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-115798398.6337</v>
+        <v>-111219098.959199</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>StorageUnit</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>68.11892</v>
+        <v>66.63944100000001</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>17402.76722</v>
+        <v>30430.76019861499</v>
       </c>
       <c r="F9" t="n">
-        <v>18688.03691</v>
+        <v>32678.20368023996</v>
       </c>
       <c r="G9" t="n">
-        <v>-1285.2697</v>
+        <v>-2247.443481625</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06048172813074547</v>
+        <v>0.1081074437715325</v>
       </c>
       <c r="J9" t="n">
-        <v>598007.0089</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1256356.1538</v>
+        <v>1370840.350484156</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1256356.16246</v>
+        <v>1370840.348979826</v>
       </c>
       <c r="N9" t="n">
-        <v>72.19279479719322</v>
+        <v>45.04785092559786</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="inlineStr">
+      <c r="A10" s="26" t="inlineStr">
         <is>
           <t>Store</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7431.342</v>
+        <v>28286.994</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15473.00271</v>
+        <v>52417.65417673375</v>
       </c>
       <c r="F10" t="n">
-        <v>15473.00236</v>
+        <v>52417.65390892929</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00035</v>
+        <v>0.0002678043592823087</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3551887559474453</v>
+        <v>0.4098789215709231</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>71612.29736</v>
+        <v>3222686.317948711</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00035</v>
+        <v>0.0002678043592823087</v>
       </c>
       <c r="M10" t="n">
-        <v>71612.33189</v>
+        <v>3222686.502660474</v>
       </c>
       <c r="N10" t="n">
-        <v>4.628221386838172</v>
+        <v>61.48093716278913</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2124.3904</v>
+        <v>3568.3288</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>165210.20587</v>
+        <v>176965.687703718</v>
       </c>
       <c r="F11" t="n">
-        <v>165210.20515</v>
+        <v>176965.6887826571</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00072</v>
+        <v>-0.001078938299940546</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1394292357939482</v>
+        <v>0.2889678274382066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>10773609.86819</v>
+        <v>5709023.346798455</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00072</v>
+        <v>-0.001078938299940546</v>
       </c>
       <c r="M11" t="n">
-        <v>10773610.03898</v>
+        <v>5709023.189771163</v>
       </c>
       <c r="N11" t="n">
-        <v>65.21153724811913</v>
+        <v>32.26062217964775</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="25" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="25" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -5949,7 +5955,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>875999.99341</v>
+        <v>876000.0090151001</v>
       </c>
     </row>
     <row r="16">
@@ -5959,7 +5965,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106292922.04912</v>
+        <v>99627074.63271216</v>
       </c>
     </row>
     <row r="17">
@@ -5969,7 +5975,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9505475.928479999</v>
+        <v>11592023.15605587</v>
       </c>
     </row>
     <row r="18">
@@ -5979,7 +5985,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>687.3877557230655</v>
+        <v>660.2046832760075</v>
       </c>
     </row>
   </sheetData>
@@ -6007,278 +6013,278 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>Optimal Capacity</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Installed Capacity</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Supply</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>Withdrawal</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Energy Balance</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
+        <is>
+          <t>Dispatch</t>
+        </is>
+      </c>
+      <c r="H1" s="25" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>Capacity Factor</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>Curtailment</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="25" t="inlineStr">
         <is>
           <t>Capital Expenditure</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="25" t="inlineStr">
         <is>
           <t>Operational Expenditure</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="25" t="inlineStr">
         <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="25" t="inlineStr">
         <is>
           <t>Market Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="inlineStr">
+      <c r="A2" s="26" t="inlineStr">
         <is>
           <t>Generator</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>solar</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>360.01739</v>
+        <v>343.52381</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>372614.17103</v>
+        <v>418320.1786639999</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>372614.17103</v>
+        <v>418320.1786639999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1181494593913922</v>
+        <v>0.1390105828558668</v>
       </c>
       <c r="J2" t="n">
-        <v>225377.56069</v>
+        <v>152275.584260159</v>
       </c>
       <c r="K2" t="n">
-        <v>15282764.31072</v>
+        <v>16350630.95348142</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>15282764.19317</v>
+        <v>16350630.82707278</v>
       </c>
       <c r="N2" t="n">
-        <v>41.014987824391</v>
+        <v>39.08640238033033</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n"/>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>696.83473</v>
+        <v>419.36757</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1563190.58011</v>
+        <v>1518065.943551292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1563190.58011</v>
+        <v>1518065.943551292</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2560813953690281</v>
+        <v>0.413229852359677</v>
       </c>
       <c r="J3" t="n">
-        <v>1599117.20158</v>
+        <v>385067.2871604603</v>
       </c>
       <c r="K3" t="n">
-        <v>38225911.70514</v>
+        <v>27886858.4715285</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>38225911.6181</v>
+        <v>27886858.50362715</v>
       </c>
       <c r="N3" t="n">
-        <v>24.45377601039999</v>
+        <v>18.3699915159086</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="inlineStr">
+      <c r="A4" s="26" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Electrolyser</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>307.58628</v>
+        <v>282.08995</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1068290.76842</v>
+        <v>1068290.768400871</v>
       </c>
       <c r="F4" t="n">
-        <v>1810662.31936</v>
+        <v>1810662.319323497</v>
       </c>
       <c r="G4" t="n">
-        <v>-742371.55094</v>
+        <v>-742371.5509226257</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6719955454450049</v>
+        <v>0.7327329874563765</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15931385.00964</v>
+        <v>24719667.0156932</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15931385.01186</v>
+        <v>24719667.12472685</v>
       </c>
       <c r="N4" t="n">
-        <v>14.91296717534092</v>
+        <v>23.139455900878</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="A5" s="28" t="n"/>
+      <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.49032</v>
+        <v>130.89689</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>875999.97412</v>
+        <v>876000.0151150912</v>
       </c>
       <c r="F5" t="n">
-        <v>1192682.72477</v>
+        <v>1192682.780579355</v>
       </c>
       <c r="G5" t="n">
-        <v>-316682.75065</v>
+        <v>-316682.7654642642</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9799645556481844</v>
+        <v>0.9316569866879479</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6329181.61895</v>
+        <v>9841556.480805896</v>
       </c>
       <c r="L5" t="n">
-        <v>9505475.71923</v>
+        <v>11592023.23677645</v>
       </c>
       <c r="M5" t="n">
-        <v>15834656.41937</v>
+        <v>21433579.80499268</v>
       </c>
       <c r="N5" t="n">
-        <v>18.0760918</v>
+        <v>24.46755643283428</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="28" t="n"/>
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38.77327</v>
+        <v>35.598616</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>33109.60023</v>
+        <v>100991.2282849006</v>
       </c>
       <c r="F6" t="n">
-        <v>33109.60023</v>
+        <v>100991.2282849006</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00017</v>
+        <v>-0.0005952198591785418</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09748030021713414</v>
+        <v>0.3238518887351305</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -6287,39 +6293,42 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00017</v>
+        <v>-0.0005952197495844302</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00017</v>
+        <v>-0.000595280434936285</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-5.893316404424336e-09</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="A7" s="27" t="n"/>
+      <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>124.44434</v>
+        <v>130.89689</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>316366.22357</v>
+        <v>311401.7047741083</v>
       </c>
       <c r="F7" t="n">
-        <v>316366.22357</v>
+        <v>311401.7047741083</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00056</v>
+        <v>0.0009048259299220263</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2902090203539993</v>
+        <v>0.2715736012856838</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -6328,19 +6337,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00056</v>
+        <v>0.0009048259728956509</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00056</v>
+        <v>0.0009048543870449066</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.905632640435153e-09</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>Load</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6373,156 +6385,156 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-96503016.2263</v>
+        <v>-101123915.4402031</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>StorageUnit</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35.48812</v>
+        <v>39.68199</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>10161.22664</v>
+        <v>18032.965364382</v>
       </c>
       <c r="F9" t="n">
-        <v>10911.67727</v>
+        <v>19364.77801297999</v>
       </c>
       <c r="G9" t="n">
-        <v>-750.45063</v>
+        <v>-1331.812648597994</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06778550117616824</v>
+        <v>0.1075840396958441</v>
       </c>
       <c r="J9" t="n">
-        <v>311626.38183</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>654527.6693900001</v>
+        <v>816298.4602393163</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>654527.6666699999</v>
+        <v>816298.4578616484</v>
       </c>
       <c r="N9" t="n">
-        <v>64.41409186523673</v>
+        <v>45.26701190664786</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="inlineStr">
+      <c r="A10" s="26" t="inlineStr">
         <is>
           <t>Store</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7598.3423</v>
+        <v>27648.721</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>16554.80003</v>
+        <v>50495.61444005983</v>
       </c>
       <c r="F10" t="n">
-        <v>16554.8002</v>
+        <v>50495.61384484063</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00017</v>
+        <v>0.0005952198591785418</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3408220185079053</v>
+        <v>0.4128602762794727</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>73221.59957999999</v>
+        <v>3149969.023766937</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.00017</v>
+        <v>0.0005952198591785418</v>
       </c>
       <c r="M10" t="n">
-        <v>73221.58136</v>
+        <v>3149969.084919804</v>
       </c>
       <c r="N10" t="n">
-        <v>4.422976791440455</v>
+        <v>62.38104278657743</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2070.5468</v>
+        <v>4229.545</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>158183.11151</v>
+        <v>155700.851934641</v>
       </c>
       <c r="F11" t="n">
-        <v>158183.11206</v>
+        <v>155700.8528394664</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.00056</v>
+        <v>-0.0009048259283304105</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1405904324403583</v>
+        <v>0.2748945924757951</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>10500548.03347</v>
+        <v>6766913.169922759</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.00056</v>
+        <v>-0.0009048259283304105</v>
       </c>
       <c r="M11" t="n">
-        <v>10500548.23495</v>
+        <v>6766912.919244</v>
       </c>
       <c r="N11" t="n">
-        <v>66.38224376337054</v>
+        <v>43.46098839641905</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="25" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="25" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -6535,7 +6547,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>875999.97412</v>
+        <v>876000.0151150912</v>
       </c>
     </row>
     <row r="16">
@@ -6545,7 +6557,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86997539.94689001</v>
+        <v>89531893.57543801</v>
       </c>
     </row>
     <row r="17">
@@ -6555,7 +6567,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9505475.71923</v>
+        <v>11592023.23677645</v>
       </c>
     </row>
     <row r="18">
@@ -6565,7 +6577,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>572.8489683666157</v>
+        <v>600.2789478884066</v>
       </c>
     </row>
   </sheetData>

--- a/LCOA_PyPSA_results.xlsx
+++ b/LCOA_PyPSA_results.xlsx
@@ -4345,7 +4345,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="n"/>
+      <c r="A3" s="27" t="n"/>
       <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
@@ -4437,7 +4437,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="n"/>
+      <c r="A5" s="28" t="n"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
@@ -4481,7 +4481,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="n"/>
+      <c r="A6" s="28" t="n"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
@@ -4525,7 +4525,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="n"/>
+      <c r="A7" s="27" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
@@ -4597,7 +4597,6 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -4610,7 +4609,6 @@
       <c r="M8" t="n">
         <v>-114583742.4676979</v>
       </c>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="25" t="inlineStr">
@@ -4709,7 +4707,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="n"/>
+      <c r="A11" s="27" t="n"/>
       <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
@@ -4902,84 +4900,84 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>410.8875</v>
+        <v>405.18206</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>525176.06484117</v>
+        <v>517885.7853975501</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>525176.06484117</v>
+        <v>517885.7853975501</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1459075916777123</v>
+        <v>0.1459081922203009</v>
       </c>
       <c r="J2" t="n">
-        <v>153616.54119765</v>
+        <v>151481.3437589199</v>
       </c>
       <c r="K2" t="n">
-        <v>19556926.42061287</v>
+        <v>19285365.78594469</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>19556926.66883652</v>
+        <v>19285365.94227958</v>
       </c>
       <c r="N2" t="n">
-        <v>37.23880042924495</v>
+        <v>37.23864698753101</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="n"/>
+      <c r="A3" s="25" t="n"/>
       <c r="B3" s="25" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>421.29851</v>
+        <v>415.4485</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1438971.211364883</v>
+        <v>1418902.925152543</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1438971.211364883</v>
+        <v>1418902.925152543</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3899043460154237</v>
+        <v>0.3898803817230578</v>
       </c>
       <c r="J3" t="n">
-        <v>314701.5324458299</v>
+        <v>310418.9106899601</v>
       </c>
       <c r="K3" t="n">
-        <v>28015260.98605058</v>
+        <v>27626250.45543891</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>28015260.72524665</v>
+        <v>27626250.51655447</v>
       </c>
       <c r="N3" t="n">
-        <v>19.46895150089471</v>
+        <v>19.47014839904181</v>
       </c>
     </row>
     <row r="4">
@@ -4994,113 +4992,113 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>283.19525</v>
+        <v>282.32824</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1068290.76921521</v>
+        <v>1068290.750271514</v>
       </c>
       <c r="F4" t="n">
-        <v>1810662.320703757</v>
+        <v>1810662.288595793</v>
       </c>
       <c r="G4" t="n">
-        <v>-742371.5514885474</v>
+        <v>-742371.5383242788</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7298731597810463</v>
+        <v>0.7321145355037508</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>24816524.94328844</v>
+        <v>24740548.47372872</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>24816524.51455568</v>
+        <v>24740549.00606664</v>
       </c>
       <c r="N4" t="n">
-        <v>23.23012163887395</v>
+        <v>23.1590032954779</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="n"/>
+      <c r="A5" s="25" t="n"/>
       <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Haber-Bosch</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>129.96116</v>
+        <v>129.96269</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>876000.0150289923</v>
+        <v>876000.0067092503</v>
       </c>
       <c r="F5" t="n">
-        <v>1219988.068850572</v>
+        <v>1192682.769134716</v>
       </c>
       <c r="G5" t="n">
-        <v>-343988.0538215791</v>
+        <v>-316682.762425466</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9383649860638241</v>
+        <v>0.9383539301473195</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>9771203.093144931</v>
+        <v>9771318.127057621</v>
       </c>
       <c r="L5" t="n">
-        <v>11592023.2356371</v>
+        <v>11592023.12554295</v>
       </c>
       <c r="M5" t="n">
-        <v>21363227.68915277</v>
+        <v>21363340.46354404</v>
       </c>
       <c r="N5" t="n">
-        <v>24.38724580209611</v>
+        <v>24.38737477160277</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="n"/>
+      <c r="A6" s="25" t="n"/>
       <c r="B6" s="25" t="inlineStr">
         <is>
           <t>ammonia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36.058995</v>
+        <v>36.058242</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>93063.33528219021</v>
+        <v>93029.08727912919</v>
       </c>
       <c r="F6" t="n">
-        <v>93063.33528219021</v>
+        <v>93029.08727912919</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002107705322487163</v>
+        <v>0.0004060512092110002</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2946190932722586</v>
+        <v>0.2945168214750573</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -5109,42 +5107,42 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002107701329805423</v>
+        <v>0.0004060511646457599</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0002107461914420128</v>
+        <v>0.0004060775972902775</v>
       </c>
       <c r="N6" t="n">
-        <v>2.264599272492895e-09</v>
+        <v>4.365143803818712e-09</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="n"/>
+      <c r="A7" s="25" t="n"/>
       <c r="B7" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>129.96116</v>
+        <v>129.96269</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>334995.3389755026</v>
+        <v>330518.9421415017</v>
       </c>
       <c r="F7" t="n">
-        <v>334995.3389755026</v>
+        <v>330518.9421415017</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.001727376533835923</v>
+        <v>-0.001068951507249949</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2942531218711645</v>
+        <v>0.2903177277048004</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -5153,13 +5151,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.001727376561575511</v>
+        <v>-0.001068951540901253</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.001727338880300522</v>
+        <v>-0.001068922691047192</v>
       </c>
       <c r="N7" t="n">
-        <v>-5.156474055697923e-09</v>
+        <v>-3.233989929941114e-09</v>
       </c>
     </row>
     <row r="8">
@@ -5191,6 +5189,7 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -5201,8 +5200,9 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-105550043.8160016</v>
-      </c>
+        <v>-104676053.7247964</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="25" t="inlineStr">
@@ -5216,40 +5216,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42.18035</v>
+        <v>41.286325</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>24205.54216396003</v>
+        <v>23484.06465575997</v>
       </c>
       <c r="F9" t="n">
-        <v>25993.22632590398</v>
+        <v>25218.46456782995</v>
       </c>
       <c r="G9" t="n">
-        <v>-1787.684161944</v>
+        <v>-1734.399912070001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1358559856415861</v>
+        <v>0.1346607976066583</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>867692.239158254</v>
+        <v>849301.2453871388</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>867692.236645882</v>
+        <v>849301.2461014369</v>
       </c>
       <c r="N9" t="n">
-        <v>35.84684163521035</v>
+        <v>36.16500203652463</v>
       </c>
     </row>
     <row r="10">
@@ -5264,84 +5264,84 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23291.932</v>
+        <v>23299.948</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>46531.66753570992</v>
+        <v>46514.54343653881</v>
       </c>
       <c r="F10" t="n">
-        <v>46531.66774648054</v>
+        <v>46514.54384259057</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0002107705322487163</v>
+        <v>-0.0004060512092110002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4492792071293138</v>
+        <v>0.4494665121103497</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2653607.893966809</v>
+        <v>2654521.142420309</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0002107705322487163</v>
+        <v>-0.0004060512092110002</v>
       </c>
       <c r="M10" t="n">
-        <v>2653607.908870326</v>
+        <v>2654521.121169405</v>
       </c>
       <c r="N10" t="n">
-        <v>57.02799941209544</v>
+        <v>57.0686268218684</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="n"/>
+      <c r="A11" s="25" t="n"/>
       <c r="B11" s="25" t="inlineStr">
         <is>
           <t>hydrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5173.2775</v>
+        <v>5098.2236</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>167497.6703514399</v>
+        <v>165259.471605227</v>
       </c>
       <c r="F11" t="n">
-        <v>167497.6686240634</v>
+        <v>165259.4705362744</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001727376532926428</v>
+        <v>0.00106895150793207</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2823127818756838</v>
+        <v>0.2812517004346954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>8276805.104666125</v>
+        <v>8156725.232158783</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001727376532926428</v>
+        <v>0.00106895150793207</v>
       </c>
       <c r="M11" t="n">
-        <v>8276805.180257404</v>
+        <v>8156725.556517238</v>
       </c>
       <c r="N11" t="n">
-        <v>49.41444954363288</v>
+        <v>49.35708360487862</v>
       </c>
     </row>
     <row r="14">
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>876000.0150289923</v>
+        <v>876000.0067092503</v>
       </c>
     </row>
     <row r="16">
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93958020.68088801</v>
+        <v>93084030.46213616</v>
       </c>
     </row>
     <row r="17">
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11592023.2356371</v>
+        <v>11592023.12554295</v>
       </c>
     </row>
     <row r="18">
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>626.5527613578471</v>
+        <v>621.364696903014</v>
       </c>
     </row>
   </sheetData>
